--- a/野火ESP8266与各开发板引脚连接说明/野火ESP8266与各开发板引脚连接说明.xlsx
+++ b/野火ESP8266与各开发板引脚连接说明/野火ESP8266与各开发板引脚连接说明.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="57">
   <si>
     <t>ESP8266模块与各开发板引脚连接说明</t>
   </si>
@@ -245,6 +245,91 @@
         <scheme val="minor"/>
       </rPr>
       <t>9</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -828,7 +913,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1048,10 +1133,10 @@
         <v>21</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>21</v>
+        <v>53</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>21</v>
@@ -1094,11 +1179,11 @@
       <c r="G7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>25</v>
+      <c r="H7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>25</v>
